--- a/grupos/2ARHV - Estadisticos 20202.xlsx
+++ b/grupos/2ARHV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
   <si>
     <t>Materia</t>
   </si>
@@ -209,18 +209,18 @@
     <t>Contreras Díaz Irma Ivette</t>
   </si>
   <si>
+    <t>Camacho Juárez Sergio Eduardo</t>
+  </si>
+  <si>
+    <t>Mendoza Velazquez Laura Elena</t>
+  </si>
+  <si>
     <t>González Nuñez Veronica</t>
   </si>
   <si>
     <t>Villanueva Morales Luis Arturo</t>
   </si>
   <si>
-    <t>Camacho Juárez Sergio Eduardo</t>
-  </si>
-  <si>
-    <t>Mendoza Velazquez Laura Elena</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -233,37 +233,124 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>XOCHITL CITLALLI</t>
+  </si>
+  <si>
+    <t>ESMERALDA</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
     <t>CHAVEZ</t>
   </si>
   <si>
     <t>CARRILLO</t>
   </si>
   <si>
-    <t>CORONA</t>
+    <t>CONGUILLO</t>
+  </si>
+  <si>
+    <t>CUATRA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
   </si>
   <si>
     <t>LIMON</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>MARROQUIN</t>
+    <t>MARCIAL</t>
   </si>
   <si>
     <t>MAYAHUA</t>
   </si>
   <si>
+    <t>MIXTEGA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
     <t>OSORIO</t>
   </si>
   <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>DE LA ROSA</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>TIBURCIO</t>
+  </si>
+  <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>TRUJILLO</t>
+    <t>VELAZQEZ</t>
+  </si>
+  <si>
+    <t>ROMANOS</t>
   </si>
   <si>
     <t>TEPOLE</t>
@@ -272,31 +359,73 @@
     <t>VELAZCO</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
   </si>
   <si>
     <t>BASILIO</t>
   </si>
   <si>
+    <t>NOYOLA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
     <t>CHIPAHUA</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>XOCHIQUISQUI</t>
   </si>
   <si>
+    <t>BAXIN</t>
+  </si>
+  <si>
+    <t>REYNOSO</t>
+  </si>
+  <si>
     <t>MACHORRO</t>
   </si>
   <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
     <t>RAMON</t>
   </si>
   <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>CASTRO</t>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>MELANIE NAOMI</t>
+  </si>
+  <si>
+    <t>AMARANTA DENISSE</t>
   </si>
   <si>
     <t>XOCHITL JOSELINE</t>
@@ -305,217 +434,88 @@
     <t>ARLETH</t>
   </si>
   <si>
-    <t>XOCHITL CITLALLI</t>
+    <t>CONSUELO DALILA</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>EMELIN JIROMI</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>AIDA</t>
+  </si>
+  <si>
+    <t>ODALYS</t>
+  </si>
+  <si>
+    <t>KIMBERLY ALONDRA</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
   </si>
   <si>
     <t>MARIJOSE</t>
   </si>
   <si>
+    <t>MARIA JOSE</t>
+  </si>
+  <si>
+    <t>ABDIEL</t>
+  </si>
+  <si>
     <t>GERMAN ERNESTO</t>
   </si>
   <si>
-    <t>ESMERALDA</t>
+    <t>IVAN DE JESUS</t>
   </si>
   <si>
     <t>DAMARIS</t>
   </si>
   <si>
+    <t>ARIANDY LIZETTE</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>SANDY SAMARA</t>
+  </si>
+  <si>
     <t>KARLA</t>
   </si>
   <si>
+    <t>TAILY</t>
+  </si>
+  <si>
+    <t>INGRID YALITH</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>ALONDRA</t>
+  </si>
+  <si>
+    <t>XIMENA MICHELL</t>
+  </si>
+  <si>
     <t>MEILYN ADABEL</t>
   </si>
   <si>
+    <t>DIANA VIANNEY</t>
+  </si>
+  <si>
     <t>CONSTANZA XIMENA</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CONGUILLO</t>
-  </si>
-  <si>
-    <t>CUATRA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MARCIAL</t>
-  </si>
-  <si>
-    <t>MIXTEGA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>OLIVARES</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>DE LA ROSA</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>TIBURCIO</t>
-  </si>
-  <si>
-    <t>VELAZQEZ</t>
-  </si>
-  <si>
-    <t>ROMANOS</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>APARICIO</t>
-  </si>
-  <si>
-    <t>NOYOLA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>BAXIN</t>
-  </si>
-  <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>MELANIE NAOMI</t>
-  </si>
-  <si>
-    <t>AMARANTA DENISSE</t>
-  </si>
-  <si>
-    <t>CONSUELO DALILA</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>EMELIN JIROMI</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>AIDA</t>
-  </si>
-  <si>
-    <t>ODALYS</t>
-  </si>
-  <si>
-    <t>KIMBERLY ALONDRA</t>
-  </si>
-  <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
-    <t>MARIA JOSE</t>
-  </si>
-  <si>
-    <t>ABDIEL</t>
-  </si>
-  <si>
-    <t>IVAN DE JESUS</t>
-  </si>
-  <si>
-    <t>ARIANDY LIZETTE</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>SANDY SAMARA</t>
-  </si>
-  <si>
-    <t>TAILY</t>
-  </si>
-  <si>
-    <t>INGRID YALITH</t>
-  </si>
-  <si>
-    <t>LUCERO</t>
-  </si>
-  <si>
-    <t>ALONDRA</t>
-  </si>
-  <si>
-    <t>XIMENA MICHELL</t>
-  </si>
-  <si>
-    <t>DIANA VIANNEY</t>
   </si>
   <si>
     <t>KIMBERLY</t>
@@ -1055,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R4">
         <v>8</v>
@@ -1096,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>7</v>
@@ -1114,10 +1114,10 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>5</v>
@@ -1132,10 +1132,10 @@
         <v>5</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -1150,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y5">
         <v>6</v>
@@ -1209,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R6">
         <v>9</v>
@@ -1250,10 +1250,10 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1268,10 +1268,10 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1286,10 +1286,10 @@
         <v>5</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S7">
         <v>9</v>
@@ -1304,10 +1304,10 @@
         <v>5</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y7">
         <v>6</v>
@@ -1363,7 +1363,7 @@
         <v>9</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R8">
         <v>9</v>
@@ -1440,7 +1440,7 @@
         <v>8</v>
       </c>
       <c r="Q9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R9">
         <v>9</v>
@@ -1517,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R10">
         <v>-1</v>
@@ -1594,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="Q11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R11">
         <v>10</v>
@@ -1671,10 +1671,10 @@
         <v>8</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S12">
         <v>7</v>
@@ -1692,7 +1692,7 @@
         <v>8</v>
       </c>
       <c r="X12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -1748,7 +1748,7 @@
         <v>8</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R13">
         <v>6</v>
@@ -1825,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R14">
         <v>8</v>
@@ -1902,10 +1902,10 @@
         <v>5</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S15">
         <v>8</v>
@@ -1920,7 +1920,7 @@
         <v>6</v>
       </c>
       <c r="W15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X15">
         <v>7</v>
@@ -1979,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R16">
         <v>10</v>
@@ -2056,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>7</v>
@@ -2133,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>9</v>
@@ -2210,10 +2210,10 @@
         <v>8</v>
       </c>
       <c r="Q19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S19">
         <v>8</v>
@@ -2287,7 +2287,7 @@
         <v>9</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R20">
         <v>9</v>
@@ -2328,7 +2328,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2346,7 +2346,7 @@
         <v>5</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L21">
         <v>7</v>
@@ -2364,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R21">
         <v>9</v>
@@ -2382,7 +2382,7 @@
         <v>6</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X21">
         <v>7</v>
@@ -2441,10 +2441,10 @@
         <v>7</v>
       </c>
       <c r="Q22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S22">
         <v>8</v>
@@ -2518,10 +2518,10 @@
         <v>6</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S23">
         <v>8</v>
@@ -2539,7 +2539,7 @@
         <v>9</v>
       </c>
       <c r="X23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y23">
         <v>8</v>
@@ -2595,7 +2595,7 @@
         <v>9</v>
       </c>
       <c r="Q24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>8</v>
@@ -2672,7 +2672,7 @@
         <v>7</v>
       </c>
       <c r="Q25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R25">
         <v>-1</v>
@@ -2713,7 +2713,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -2731,10 +2731,10 @@
         <v>5</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M26">
         <v>5</v>
@@ -2749,10 +2749,10 @@
         <v>5</v>
       </c>
       <c r="Q26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S26">
         <v>7</v>
@@ -2767,7 +2767,7 @@
         <v>5</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X26">
         <v>6</v>
@@ -2790,7 +2790,7 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F27">
         <v>6</v>
@@ -2808,7 +2808,7 @@
         <v>8</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>6</v>
@@ -2826,7 +2826,7 @@
         <v>10</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R27">
         <v>7</v>
@@ -2844,7 +2844,7 @@
         <v>9</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X27">
         <v>6</v>
@@ -2903,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S28">
         <v>10</v>
@@ -2924,7 +2924,7 @@
         <v>8</v>
       </c>
       <c r="X28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y28">
         <v>10</v>
@@ -2980,7 +2980,7 @@
         <v>10</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R29">
         <v>10</v>
@@ -3057,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <v>8</v>
@@ -3134,7 +3134,7 @@
         <v>9</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R31">
         <v>10</v>
@@ -3196,7 +3196,7 @@
         <v>6</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M32">
         <v>5</v>
@@ -3211,10 +3211,10 @@
         <v>8</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S32">
         <v>9</v>
@@ -3288,7 +3288,7 @@
         <v>10</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R33">
         <v>10</v>
@@ -3365,7 +3365,7 @@
         <v>10</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R34">
         <v>10</v>
@@ -3442,7 +3442,7 @@
         <v>10</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R35">
         <v>10</v>
@@ -3519,10 +3519,10 @@
         <v>5</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S36">
         <v>9</v>
@@ -3596,10 +3596,10 @@
         <v>8</v>
       </c>
       <c r="Q37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S37">
         <v>8</v>
@@ -3617,7 +3617,7 @@
         <v>9</v>
       </c>
       <c r="X37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y37">
         <v>8</v>
@@ -3658,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M38">
         <v>5</v>
@@ -3673,10 +3673,10 @@
         <v>7</v>
       </c>
       <c r="Q38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S38">
         <v>9</v>
@@ -3694,7 +3694,7 @@
         <v>6</v>
       </c>
       <c r="X38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y38">
         <v>6</v>
@@ -3750,7 +3750,7 @@
         <v>10</v>
       </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R39">
         <v>10</v>
@@ -3791,7 +3791,7 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -3809,10 +3809,10 @@
         <v>7</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M40">
         <v>5</v>
@@ -3827,10 +3827,10 @@
         <v>7</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S40">
         <v>9</v>
@@ -3845,7 +3845,7 @@
         <v>7</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X40">
         <v>6</v>
@@ -3868,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -3886,7 +3886,7 @@
         <v>5</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L41">
         <v>-1</v>
@@ -3904,7 +3904,7 @@
         <v>5</v>
       </c>
       <c r="Q41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R41">
         <v>-1</v>
@@ -3922,7 +3922,7 @@
         <v>5</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X41">
         <v>6</v>
@@ -3981,7 +3981,7 @@
         <v>6</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R42">
         <v>9</v>
@@ -4058,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R43">
         <v>9</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -4214,30 +4214,30 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>7</v>
       </c>
       <c r="F4">
-        <v>77.5</v>
+        <v>82.5</v>
       </c>
       <c r="G4">
         <v>17.5</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>22.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -4246,30 +4246,30 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>7.4</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>82.5</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="H5">
-        <v>7.5</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>17.5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -4278,30 +4278,30 @@
         <v>40</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>82.5</v>
+        <v>92.5</v>
       </c>
       <c r="G6">
-        <v>17.5</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -4310,19 +4310,19 @@
         <v>40</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4338,7 +4338,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4370,322 +4370,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920117</v>
+        <v>20330051920120</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920117</v>
+        <v>20330051920135</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18202030110266</v>
+        <v>20330051920152</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>18202030110266</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>20330051920120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>20330051920131</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>20330051920134</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>20330051920134</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>20330051920135</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>20330051920137</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>20330051920141</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>20330051920148</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>20330051920151</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>20330051920151</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>20330051920152</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>20330051920152</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4724,200 +4464,200 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920117</v>
+        <v>20330051920120</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18202030110266</v>
+        <v>20330051920135</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920134</v>
+        <v>20330051920152</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920151</v>
+        <v>20330051920115</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920152</v>
+        <v>20330051920116</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920120</v>
+        <v>20330051920117</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920131</v>
+        <v>18202030110266</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920135</v>
+        <v>20330051920118</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920137</v>
+        <v>20330051920119</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920141</v>
+        <v>20330051920121</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920148</v>
+        <v>20330051920122</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920115</v>
+        <v>20330051920123</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
         <v>142</v>
@@ -4928,13 +4668,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920116</v>
+        <v>20330051920124</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
         <v>143</v>
@@ -4945,13 +4685,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920118</v>
+        <v>20330051920125</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
         <v>144</v>
@@ -4962,16 +4702,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920119</v>
+        <v>20330051920126</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4979,16 +4719,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920121</v>
+        <v>20330051920127</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4996,16 +4736,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920122</v>
+        <v>20330051920128</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5013,16 +4753,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920123</v>
+        <v>20330051920129</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5030,16 +4770,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920124</v>
+        <v>20330051920131</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5047,16 +4787,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920125</v>
+        <v>20330051920132</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5064,16 +4804,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920126</v>
+        <v>20330051920133</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5081,13 +4821,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920127</v>
+        <v>20330051920134</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5098,13 +4838,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920128</v>
+        <v>20330051920136</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
         <v>152</v>
@@ -5115,13 +4855,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920129</v>
+        <v>20330051920137</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -5132,13 +4872,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920132</v>
+        <v>20330051920138</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
         <v>154</v>
@@ -5149,13 +4889,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920133</v>
+        <v>20330051920139</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
         <v>155</v>
@@ -5166,13 +4906,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920136</v>
+        <v>19330051920387</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
         <v>156</v>
@@ -5183,16 +4923,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920138</v>
+        <v>20330051920140</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5200,16 +4940,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920139</v>
+        <v>20330051920141</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5217,16 +4957,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920387</v>
+        <v>20330051920389</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5234,16 +4974,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920140</v>
+        <v>20330051920142</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5251,13 +4991,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920389</v>
+        <v>20330051920143</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
         <v>160</v>
@@ -5268,13 +5008,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920142</v>
+        <v>20330051920144</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
         <v>161</v>
@@ -5285,16 +5025,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920143</v>
+        <v>20330051920387</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5302,16 +5042,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920144</v>
+        <v>20330051920145</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5319,16 +5059,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20330051920387</v>
+        <v>20330051920148</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5336,13 +5076,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20330051920145</v>
+        <v>20330051920150</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
         <v>164</v>
@@ -5353,13 +5093,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>20330051920150</v>
+        <v>20330051920151</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
         <v>165</v>
@@ -5373,10 +5113,10 @@
         <v>20330051920153</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
         <v>166</v>
@@ -5390,10 +5130,10 @@
         <v>20330051920154</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D41" t="s">
         <v>167</v>
@@ -5409,7 +5149,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5444,16 +5184,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920131</v>
+        <v>20330051920117</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -5467,45 +5207,45 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920131</v>
+        <v>20330051920117</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920137</v>
+        <v>20330051920134</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5513,25 +5253,25 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920137</v>
+        <v>20330051920134</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5539,19 +5279,19 @@
         <v>20330051920389</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -5562,13 +5302,13 @@
         <v>20330051920389</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -5582,22 +5322,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920136</v>
+        <v>20330051920148</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5605,24 +5345,162 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920144</v>
+        <v>20330051920148</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
         <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18202030110266</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>61</v>
       </c>
-      <c r="G9">
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920131</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920144</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15">
         <v>5</v>
       </c>
     </row>

--- a/grupos/2ARHV - Estadisticos 20202.xlsx
+++ b/grupos/2ARHV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="168">
   <si>
     <t>Materia</t>
   </si>
@@ -206,21 +206,21 @@
     <t>Santiago Hernández Mariana</t>
   </si>
   <si>
+    <t>Camacho Juárez Sergio Eduardo</t>
+  </si>
+  <si>
+    <t>Mendoza Velazquez Laura Elena</t>
+  </si>
+  <si>
     <t>Contreras Díaz Irma Ivette</t>
   </si>
   <si>
-    <t>Camacho Juárez Sergio Eduardo</t>
-  </si>
-  <si>
-    <t>Mendoza Velazquez Laura Elena</t>
+    <t>Villanueva Morales Luis Arturo</t>
   </si>
   <si>
     <t>González Nuñez Veronica</t>
   </si>
   <si>
-    <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -233,289 +233,289 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>CONGUILLO</t>
+  </si>
+  <si>
     <t>CORONA</t>
   </si>
   <si>
+    <t>CUATRA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>LIMON</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
     <t>MARROQUIN</t>
   </si>
   <si>
+    <t>MARCIAL</t>
+  </si>
+  <si>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
+    <t>MIXTEGA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>OLTEHUA</t>
+  </si>
+  <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>DE LA ROSA</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TIBURCIO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
+    <t>VELAZQEZ</t>
+  </si>
+  <si>
+    <t>ROMANOS</t>
+  </si>
+  <si>
+    <t>TEPOLE</t>
+  </si>
+  <si>
+    <t>VELAZCO</t>
+  </si>
+  <si>
+    <t>ZOPIYACTLE</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>BASILIO</t>
+  </si>
+  <si>
+    <t>NOYOLA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>CHIPAHUA</t>
   </si>
   <si>
     <t>HERRERA</t>
   </si>
   <si>
+    <t>XOCHIQUISQUI</t>
+  </si>
+  <si>
+    <t>BAXIN</t>
+  </si>
+  <si>
+    <t>REYNOSO</t>
+  </si>
+  <si>
+    <t>MACHORRO</t>
+  </si>
+  <si>
+    <t>MAZAHUA</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
     <t>CASTRO</t>
   </si>
   <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>RAMON</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>MELANIE NAOMI</t>
+  </si>
+  <si>
+    <t>AMARANTA DENISSE</t>
+  </si>
+  <si>
+    <t>XOCHITL JOSELINE</t>
+  </si>
+  <si>
+    <t>ARLETH</t>
+  </si>
+  <si>
+    <t>CONSUELO DALILA</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
     <t>XOCHITL CITLALLI</t>
   </si>
   <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>EMELIN JIROMI</t>
+  </si>
+  <si>
+    <t>ITZEL</t>
+  </si>
+  <si>
+    <t>AIDA</t>
+  </si>
+  <si>
     <t>ESMERALDA</t>
   </si>
   <si>
+    <t>ODALYS</t>
+  </si>
+  <si>
+    <t>KIMBERLY ALONDRA</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>MARIJOSE</t>
+  </si>
+  <si>
+    <t>MARIA JOSE</t>
+  </si>
+  <si>
+    <t>ABDIEL</t>
+  </si>
+  <si>
+    <t>GERMAN ERNESTO</t>
+  </si>
+  <si>
+    <t>IVAN DE JESUS</t>
+  </si>
+  <si>
+    <t>DAMARIS</t>
+  </si>
+  <si>
+    <t>ARIANDY LIZETTE</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>SANDY SAMARA</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>TAILY</t>
+  </si>
+  <si>
+    <t>INGRID YALITH</t>
+  </si>
+  <si>
+    <t>LUCERO</t>
+  </si>
+  <si>
+    <t>ALONDRA</t>
+  </si>
+  <si>
+    <t>XIMENA MICHELL</t>
+  </si>
+  <si>
+    <t>MEILYN ADABEL</t>
+  </si>
+  <si>
+    <t>DIANA VIANNEY</t>
+  </si>
+  <si>
+    <t>CONSTANZA XIMENA</t>
+  </si>
+  <si>
     <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>CARRILLO</t>
-  </si>
-  <si>
-    <t>CONGUILLO</t>
-  </si>
-  <si>
-    <t>CUATRA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>LIMON</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MARCIAL</t>
-  </si>
-  <si>
-    <t>MAYAHUA</t>
-  </si>
-  <si>
-    <t>MIXTEGA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>OLTEHUA</t>
-  </si>
-  <si>
-    <t>OLIVARES</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>DE LA ROSA</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TIBURCIO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VELAZQEZ</t>
-  </si>
-  <si>
-    <t>ROMANOS</t>
-  </si>
-  <si>
-    <t>TEPOLE</t>
-  </si>
-  <si>
-    <t>VELAZCO</t>
-  </si>
-  <si>
-    <t>ZOPIYACTLE</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>APARICIO</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>NOYOLA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>CHIPAHUA</t>
-  </si>
-  <si>
-    <t>XOCHIQUISQUI</t>
-  </si>
-  <si>
-    <t>BAXIN</t>
-  </si>
-  <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
-    <t>MACHORRO</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>RAMON</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>MELANIE NAOMI</t>
-  </si>
-  <si>
-    <t>AMARANTA DENISSE</t>
-  </si>
-  <si>
-    <t>XOCHITL JOSELINE</t>
-  </si>
-  <si>
-    <t>ARLETH</t>
-  </si>
-  <si>
-    <t>CONSUELO DALILA</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>EMELIN JIROMI</t>
-  </si>
-  <si>
-    <t>ITZEL</t>
-  </si>
-  <si>
-    <t>AIDA</t>
-  </si>
-  <si>
-    <t>ODALYS</t>
-  </si>
-  <si>
-    <t>KIMBERLY ALONDRA</t>
-  </si>
-  <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
-    <t>MARIJOSE</t>
-  </si>
-  <si>
-    <t>MARIA JOSE</t>
-  </si>
-  <si>
-    <t>ABDIEL</t>
-  </si>
-  <si>
-    <t>GERMAN ERNESTO</t>
-  </si>
-  <si>
-    <t>IVAN DE JESUS</t>
-  </si>
-  <si>
-    <t>DAMARIS</t>
-  </si>
-  <si>
-    <t>ARIANDY LIZETTE</t>
-  </si>
-  <si>
-    <t>VALERIA</t>
-  </si>
-  <si>
-    <t>SANDY SAMARA</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>TAILY</t>
-  </si>
-  <si>
-    <t>INGRID YALITH</t>
-  </si>
-  <si>
-    <t>LUCERO</t>
-  </si>
-  <si>
-    <t>ALONDRA</t>
-  </si>
-  <si>
-    <t>XIMENA MICHELL</t>
-  </si>
-  <si>
-    <t>MEILYN ADABEL</t>
-  </si>
-  <si>
-    <t>DIANA VIANNEY</t>
-  </si>
-  <si>
-    <t>CONSTANZA XIMENA</t>
   </si>
   <si>
     <t>KIMBERLY</t>
@@ -1484,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1502,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <v>5</v>
@@ -1520,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S10">
         <v>5</v>
@@ -1538,7 +1538,7 @@
         <v>6</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y10">
         <v>5</v>
@@ -2657,7 +2657,7 @@
         <v>6</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M25">
         <v>5</v>
@@ -2675,7 +2675,7 @@
         <v>6</v>
       </c>
       <c r="R25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S25">
         <v>8</v>
@@ -3889,7 +3889,7 @@
         <v>6</v>
       </c>
       <c r="L41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M41">
         <v>5</v>
@@ -3907,7 +3907,7 @@
         <v>6</v>
       </c>
       <c r="R41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S41">
         <v>5</v>
@@ -4150,19 +4150,19 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>65</v>
+        <v>87.5</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>12.5</v>
       </c>
       <c r="H2">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -4182,19 +4182,19 @@
         <v>40</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -4214,19 +4214,19 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>82.5</v>
+        <v>92.5</v>
       </c>
       <c r="G4">
-        <v>17.5</v>
+        <v>7.5</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -4246,19 +4246,19 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -4278,30 +4278,30 @@
         <v>40</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>92.5</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -4322,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4338,7 +4338,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4366,66 +4366,6 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>20330051920120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>20330051920135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>20330051920152</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4464,64 +4404,64 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920120</v>
+        <v>20330051920115</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920135</v>
+        <v>20330051920116</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920152</v>
+        <v>20330051920117</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920115</v>
+        <v>18202030110266</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
         <v>134</v>
@@ -4532,13 +4472,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920116</v>
+        <v>20330051920118</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>135</v>
@@ -4549,13 +4489,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920117</v>
+        <v>20330051920119</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>136</v>
@@ -4566,13 +4506,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18202030110266</v>
+        <v>20330051920120</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>137</v>
@@ -4583,13 +4523,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920118</v>
+        <v>20330051920121</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
         <v>138</v>
@@ -4600,13 +4540,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920119</v>
+        <v>20330051920122</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
         <v>139</v>
@@ -4617,13 +4557,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920121</v>
+        <v>20330051920123</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>140</v>
@@ -4634,13 +4574,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920122</v>
+        <v>20330051920124</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
         <v>141</v>
@@ -4651,13 +4591,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920123</v>
+        <v>20330051920125</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
         <v>142</v>
@@ -4668,13 +4608,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920124</v>
+        <v>20330051920126</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>143</v>
@@ -4685,13 +4625,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920125</v>
+        <v>20330051920127</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
         <v>144</v>
@@ -4702,16 +4642,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920126</v>
+        <v>20330051920128</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4719,16 +4659,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920127</v>
+        <v>20330051920129</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4736,16 +4676,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920128</v>
+        <v>20330051920131</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4753,16 +4693,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920129</v>
+        <v>20330051920132</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4770,16 +4710,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920131</v>
+        <v>20330051920133</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4787,16 +4727,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920132</v>
+        <v>20330051920134</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4804,16 +4744,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920133</v>
+        <v>20330051920135</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -4821,13 +4761,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920134</v>
+        <v>20330051920136</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -4838,13 +4778,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920136</v>
+        <v>20330051920137</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
         <v>152</v>
@@ -4855,13 +4795,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920137</v>
+        <v>20330051920138</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
         <v>153</v>
@@ -4872,13 +4812,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920138</v>
+        <v>20330051920139</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
         <v>154</v>
@@ -4889,13 +4829,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920139</v>
+        <v>19330051920387</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
         <v>155</v>
@@ -4906,16 +4846,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920387</v>
+        <v>20330051920140</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4923,16 +4863,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920140</v>
+        <v>20330051920141</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4940,13 +4880,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920141</v>
+        <v>20330051920389</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
         <v>157</v>
@@ -4957,13 +4897,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920389</v>
+        <v>20330051920142</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
         <v>158</v>
@@ -4974,13 +4914,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920142</v>
+        <v>20330051920143</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
         <v>159</v>
@@ -4991,13 +4931,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920143</v>
+        <v>20330051920144</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>160</v>
@@ -5008,16 +4948,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920144</v>
+        <v>20330051920387</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5025,16 +4965,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920387</v>
+        <v>20330051920145</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5042,13 +4982,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920145</v>
+        <v>20330051920148</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
         <v>162</v>
@@ -5059,13 +4999,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20330051920148</v>
+        <v>20330051920150</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
         <v>163</v>
@@ -5076,13 +5016,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20330051920150</v>
+        <v>20330051920151</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
         <v>164</v>
@@ -5093,13 +5033,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>20330051920151</v>
+        <v>20330051920152</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
         <v>165</v>
@@ -5113,10 +5053,10 @@
         <v>20330051920153</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
         <v>166</v>
@@ -5130,10 +5070,10 @@
         <v>20330051920154</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
         <v>167</v>
@@ -5149,7 +5089,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5179,27 +5119,27 @@
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920117</v>
+        <v>20330051920122</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5207,19 +5147,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920117</v>
+        <v>20330051920122</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -5230,22 +5170,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920134</v>
+        <v>20330051920141</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5253,19 +5193,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920134</v>
+        <v>20330051920141</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>62</v>
@@ -5276,22 +5216,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920389</v>
+        <v>20330051920117</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -5299,16 +5239,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920389</v>
+        <v>18202030110266</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -5322,16 +5262,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920148</v>
+        <v>20330051920134</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -5340,167 +5280,6 @@
         <v>61</v>
       </c>
       <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18202030110266</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920131</v>
-      </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920136</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920137</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920144</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920151</v>
-      </c>
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15">
         <v>5</v>
       </c>
     </row>
